--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.035294046224183</v>
+        <v>0.03133494016881249</v>
       </c>
       <c r="C2">
-        <v>0.6307066562033476</v>
+        <v>0.618674247399176</v>
       </c>
       <c r="D2">
-        <v>0.8159112232115608</v>
+        <v>0.7992451844515852</v>
       </c>
       <c r="E2">
-        <v>0.9032780431359775</v>
+        <v>0.8940051367031318</v>
       </c>
       <c r="F2">
-        <v>0.9119417484380241</v>
+        <v>0.9025266721007571</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06259627459504613</v>
+        <v>0.05905192170129663</v>
       </c>
       <c r="C3">
-        <v>0.766135284993673</v>
+        <v>0.7500407276805185</v>
       </c>
       <c r="D3">
-        <v>1.364767539724</v>
+        <v>1.336363517888593</v>
       </c>
       <c r="E3">
-        <v>1.168232656504688</v>
+        <v>1.156011902139677</v>
       </c>
       <c r="F3">
-        <v>1.178899268559532</v>
+        <v>1.166466736141374</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.005610155148276136</v>
+        <v>0.003554835396229139</v>
       </c>
       <c r="C4">
-        <v>0.6404591435035331</v>
+        <v>0.6262718728555511</v>
       </c>
       <c r="D4">
-        <v>0.814600784163957</v>
+        <v>0.7969898074296445</v>
       </c>
       <c r="E4">
-        <v>0.9025523719784669</v>
+        <v>0.8927428562747756</v>
       </c>
       <c r="F4">
-        <v>0.9122923538035689</v>
+        <v>0.9021829812466056</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08458835835827765</v>
+        <v>-0.03511572363863584</v>
       </c>
       <c r="C5">
-        <v>0.7829344550163586</v>
+        <v>0.6635828519735995</v>
       </c>
       <c r="D5">
-        <v>1.529470054079591</v>
+        <v>0.8873739543468248</v>
       </c>
       <c r="E5">
-        <v>1.236717451190688</v>
+        <v>0.9420052836087623</v>
       </c>
       <c r="F5">
-        <v>1.24745504243776</v>
+        <v>0.9517525198146293</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02309205927924261</v>
+        <v>-0.02357502177020739</v>
       </c>
       <c r="C6">
-        <v>0.624838747415816</v>
+        <v>0.6102703326053934</v>
       </c>
       <c r="D6">
-        <v>0.7825035141169124</v>
+        <v>0.7645395854549295</v>
       </c>
       <c r="E6">
-        <v>0.8845922869417936</v>
+        <v>0.8743795431361198</v>
       </c>
       <c r="F6">
-        <v>0.8942831333122997</v>
+        <v>0.8837201036899427</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01133505838823297</v>
+        <v>0.01163558867306234</v>
       </c>
       <c r="C7">
-        <v>0.5952356495091181</v>
+        <v>0.5783626329962743</v>
       </c>
       <c r="D7">
-        <v>0.7125752654259715</v>
+        <v>0.6903657101012227</v>
       </c>
       <c r="E7">
-        <v>0.8441417330199779</v>
+        <v>0.8308824887438793</v>
       </c>
       <c r="F7">
-        <v>0.8571526957380305</v>
+        <v>0.8432949623807621</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007866431127198842</v>
+        <v>0.009654851496814876</v>
       </c>
       <c r="C8">
-        <v>0.5596907884187976</v>
+        <v>0.5447572585674562</v>
       </c>
       <c r="D8">
-        <v>0.6718091222529674</v>
+        <v>0.6494921422519612</v>
       </c>
       <c r="E8">
-        <v>0.8196396295037029</v>
+        <v>0.8059107532797668</v>
       </c>
       <c r="F8">
-        <v>0.8327163426819412</v>
+        <v>0.8183475071966614</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06878745550173324</v>
+        <v>-0.04525758420911288</v>
       </c>
       <c r="C9">
-        <v>0.549972246166506</v>
+        <v>0.5348296361048615</v>
       </c>
       <c r="D9">
-        <v>0.5545572463085834</v>
+        <v>0.5246369517211453</v>
       </c>
       <c r="E9">
-        <v>0.744686005178413</v>
+        <v>0.7243182668697133</v>
       </c>
       <c r="F9">
-        <v>0.7675277093235651</v>
+        <v>0.7466109761084062</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1598871496893112</v>
+        <v>-0.120014643191906</v>
       </c>
       <c r="C10">
-        <v>0.3508460523308772</v>
+        <v>0.3396452386262637</v>
       </c>
       <c r="D10">
-        <v>0.2786183795174358</v>
+        <v>0.2564608965434484</v>
       </c>
       <c r="E10">
-        <v>0.5278431391213073</v>
+        <v>0.5064196841982432</v>
       </c>
       <c r="F10">
-        <v>0.5335600141894739</v>
+        <v>0.5186064467643261</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06673029405116952</v>
+        <v>0.1619789639338207</v>
       </c>
       <c r="C2">
-        <v>0.3004351988545212</v>
+        <v>0.3076492955603238</v>
       </c>
       <c r="D2">
-        <v>0.1299092234646646</v>
+        <v>0.1317988477936555</v>
       </c>
       <c r="E2">
-        <v>0.3604292211581416</v>
+        <v>0.3630411103355314</v>
       </c>
       <c r="F2">
-        <v>0.3675687354335792</v>
+        <v>0.3381692893945722</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1619789639338207</v>
+        <v>0.1981620169181928</v>
       </c>
       <c r="C3">
-        <v>0.3076492955603238</v>
+        <v>0.3116209034719995</v>
       </c>
       <c r="D3">
-        <v>0.1317988477936555</v>
+        <v>0.1296824127478638</v>
       </c>
       <c r="E3">
-        <v>0.3630411103355314</v>
+        <v>0.3601144439589501</v>
       </c>
       <c r="F3">
-        <v>0.3381692893945722</v>
+        <v>0.3140600309705328</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1981620169181928</v>
+        <v>0.2201334750512514</v>
       </c>
       <c r="C4">
-        <v>0.3116209034719995</v>
+        <v>0.2700445318363022</v>
       </c>
       <c r="D4">
-        <v>0.1296824127478638</v>
+        <v>0.09544857498369073</v>
       </c>
       <c r="E4">
-        <v>0.3601144439589501</v>
+        <v>0.3089475278808535</v>
       </c>
       <c r="F4">
-        <v>0.3140600309705328</v>
+        <v>0.2273517340160526</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2201334750512514</v>
+        <v>0.2251408850412157</v>
       </c>
       <c r="C5">
-        <v>0.2700445318363022</v>
+        <v>0.2596564006926809</v>
       </c>
       <c r="D5">
-        <v>0.09544857498369073</v>
+        <v>0.09977641923863516</v>
       </c>
       <c r="E5">
-        <v>0.3089475278808535</v>
+        <v>0.3158740559758512</v>
       </c>
       <c r="F5">
-        <v>0.2273517340160526</v>
+        <v>0.2335427658231482</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2251408850412157</v>
+        <v>0.1781092598615317</v>
       </c>
       <c r="C6">
-        <v>0.2596564006926809</v>
+        <v>0.1781092598615317</v>
       </c>
       <c r="D6">
-        <v>0.09977641923863516</v>
+        <v>0.05114199694748629</v>
       </c>
       <c r="E6">
-        <v>0.3158740559758512</v>
+        <v>0.2261459638098507</v>
       </c>
       <c r="F6">
-        <v>0.2335427658231482</v>
+        <v>0.147805529536099</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1781092598615317</v>
+        <v>0.2144878488911046</v>
       </c>
       <c r="C7">
-        <v>0.1781092598615317</v>
+        <v>0.2313407205340803</v>
       </c>
       <c r="D7">
-        <v>0.05114199694748629</v>
+        <v>0.09456382460910477</v>
       </c>
       <c r="E7">
-        <v>0.2261459638098507</v>
+        <v>0.3075123161909207</v>
       </c>
       <c r="F7">
-        <v>0.147805529536099</v>
+        <v>0.235575374136654</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2144878488911046</v>
+        <v>0.3427370110204659</v>
       </c>
       <c r="C8">
-        <v>0.2313407205340803</v>
+        <v>0.3605818570417189</v>
       </c>
       <c r="D8">
-        <v>0.09456382460910477</v>
+        <v>0.2023703037307001</v>
       </c>
       <c r="E8">
-        <v>0.3075123161909207</v>
+        <v>0.4498558699524772</v>
       </c>
       <c r="F8">
-        <v>0.235575374136654</v>
+        <v>0.3114971130477678</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.342272147123266</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C9">
-        <v>0.342272147123266</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D9">
-        <v>0.1218853256104953</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E9">
-        <v>0.3491207894275208</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F9">
-        <v>0.07693424882752745</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1308504580670433</v>
+        <v>0.07168159692063568</v>
       </c>
       <c r="C10">
-        <v>0.1308504580670433</v>
+        <v>0.1326419446783583</v>
       </c>
       <c r="D10">
-        <v>0.0229929799516238</v>
+        <v>0.02840911087054501</v>
       </c>
       <c r="E10">
-        <v>0.1516343627006221</v>
+        <v>0.1685500248310424</v>
       </c>
       <c r="F10">
-        <v>0.09384405342323576</v>
+        <v>0.1705537288270639</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.09392443396517081</v>
+        <v>0.018797990165231</v>
       </c>
       <c r="C11">
-        <v>0.09392443396517081</v>
+        <v>0.2195623404017969</v>
       </c>
       <c r="D11">
-        <v>0.008821799295677731</v>
+        <v>0.0769818559669036</v>
       </c>
       <c r="E11">
-        <v>0.09392443396517081</v>
+        <v>0.2774560433057885</v>
+      </c>
+      <c r="F11">
+        <v>0.3196424909856875</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1619789639338207</v>
+        <v>0.06673029405116952</v>
       </c>
       <c r="C2">
-        <v>0.3076492955603238</v>
+        <v>0.3004351988545212</v>
       </c>
       <c r="D2">
-        <v>0.1317988477936555</v>
+        <v>0.1299092234646646</v>
       </c>
       <c r="E2">
-        <v>0.3630411103355314</v>
+        <v>0.3604292211581416</v>
       </c>
       <c r="F2">
-        <v>0.3381692893945722</v>
+        <v>0.3675687354335792</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1981620169181928</v>
+        <v>0.1619789639338207</v>
       </c>
       <c r="C3">
-        <v>0.3116209034719995</v>
+        <v>0.3076492955603238</v>
       </c>
       <c r="D3">
-        <v>0.1296824127478638</v>
+        <v>0.1317988477936555</v>
       </c>
       <c r="E3">
-        <v>0.3601144439589501</v>
+        <v>0.3630411103355314</v>
       </c>
       <c r="F3">
-        <v>0.3140600309705328</v>
+        <v>0.3381692893945722</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2201334750512514</v>
+        <v>0.1981620169181928</v>
       </c>
       <c r="C4">
-        <v>0.2700445318363022</v>
+        <v>0.3116209034719995</v>
       </c>
       <c r="D4">
-        <v>0.09544857498369073</v>
+        <v>0.1296824127478638</v>
       </c>
       <c r="E4">
-        <v>0.3089475278808535</v>
+        <v>0.3601144439589501</v>
       </c>
       <c r="F4">
-        <v>0.2273517340160526</v>
+        <v>0.3140600309705328</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2251408850412157</v>
+        <v>0.2201334750512514</v>
       </c>
       <c r="C5">
-        <v>0.2596564006926809</v>
+        <v>0.2700445318363022</v>
       </c>
       <c r="D5">
-        <v>0.09977641923863516</v>
+        <v>0.09544857498369073</v>
       </c>
       <c r="E5">
-        <v>0.3158740559758512</v>
+        <v>0.3089475278808535</v>
       </c>
       <c r="F5">
-        <v>0.2335427658231482</v>
+        <v>0.2273517340160526</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1781092598615317</v>
+        <v>0.2251408850412157</v>
       </c>
       <c r="C6">
-        <v>0.1781092598615317</v>
+        <v>0.2596564006926809</v>
       </c>
       <c r="D6">
-        <v>0.05114199694748629</v>
+        <v>0.09977641923863516</v>
       </c>
       <c r="E6">
-        <v>0.2261459638098507</v>
+        <v>0.3158740559758512</v>
       </c>
       <c r="F6">
-        <v>0.147805529536099</v>
+        <v>0.2335427658231482</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2144878488911046</v>
+        <v>0.1781092598615317</v>
       </c>
       <c r="C7">
-        <v>0.2313407205340803</v>
+        <v>0.1781092598615317</v>
       </c>
       <c r="D7">
-        <v>0.09456382460910477</v>
+        <v>0.05114199694748629</v>
       </c>
       <c r="E7">
-        <v>0.3075123161909207</v>
+        <v>0.2261459638098507</v>
       </c>
       <c r="F7">
-        <v>0.235575374136654</v>
+        <v>0.147805529536099</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3427370110204659</v>
+        <v>0.2144878488911046</v>
       </c>
       <c r="C8">
-        <v>0.3605818570417189</v>
+        <v>0.2313407205340803</v>
       </c>
       <c r="D8">
-        <v>0.2023703037307001</v>
+        <v>0.09456382460910477</v>
       </c>
       <c r="E8">
-        <v>0.4498558699524772</v>
+        <v>0.3075123161909207</v>
       </c>
       <c r="F8">
-        <v>0.3114971130477678</v>
+        <v>0.235575374136654</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2987280035122604</v>
+        <v>0.249316951555495</v>
       </c>
       <c r="C9">
-        <v>0.2987280035122604</v>
+        <v>0.2697110612940698</v>
       </c>
       <c r="D9">
-        <v>0.1585806734357395</v>
+        <v>0.08937093368650917</v>
       </c>
       <c r="E9">
-        <v>0.3982218896993729</v>
+        <v>0.2989497176558445</v>
       </c>
       <c r="F9">
-        <v>0.2844280147574629</v>
+        <v>0.1781777855004607</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07168159692063568</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C10">
-        <v>0.1326419446783583</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D10">
-        <v>0.02840911087054501</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E10">
-        <v>0.1685500248310424</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F10">
-        <v>0.1705537288270639</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.018797990165231</v>
+        <v>0.07168159692063568</v>
       </c>
       <c r="C11">
-        <v>0.2195623404017969</v>
+        <v>0.1326419446783583</v>
       </c>
       <c r="D11">
-        <v>0.0769818559669036</v>
+        <v>0.02840911087054501</v>
       </c>
       <c r="E11">
-        <v>0.2774560433057885</v>
+        <v>0.1685500248310424</v>
       </c>
       <c r="F11">
-        <v>0.3196424909856875</v>
+        <v>0.1705537288270639</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06673029405116952</v>
+        <v>0.03133494016881249</v>
       </c>
       <c r="C2">
-        <v>0.3004351988545212</v>
+        <v>0.618674247399176</v>
       </c>
       <c r="D2">
-        <v>0.1299092234646646</v>
+        <v>0.7992451844515852</v>
       </c>
       <c r="E2">
-        <v>0.3604292211581416</v>
+        <v>0.8940051367031318</v>
       </c>
       <c r="F2">
-        <v>0.3675687354335792</v>
+        <v>0.9025266721007571</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1619789639338207</v>
+        <v>0.05905192170129663</v>
       </c>
       <c r="C3">
-        <v>0.3076492955603238</v>
+        <v>0.7500407276805185</v>
       </c>
       <c r="D3">
-        <v>0.1317988477936555</v>
+        <v>1.336363517888593</v>
       </c>
       <c r="E3">
-        <v>0.3630411103355314</v>
+        <v>1.156011902139677</v>
       </c>
       <c r="F3">
-        <v>0.3381692893945722</v>
+        <v>1.166466736141374</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1981620169181928</v>
+        <v>0.003554835396229139</v>
       </c>
       <c r="C4">
-        <v>0.3116209034719995</v>
+        <v>0.6262718728555511</v>
       </c>
       <c r="D4">
-        <v>0.1296824127478638</v>
+        <v>0.7969898074296445</v>
       </c>
       <c r="E4">
-        <v>0.3601144439589501</v>
+        <v>0.8927428562747756</v>
       </c>
       <c r="F4">
-        <v>0.3140600309705328</v>
+        <v>0.9021829812466056</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2201334750512514</v>
+        <v>-0.03511572363863584</v>
       </c>
       <c r="C5">
-        <v>0.2700445318363022</v>
+        <v>0.6635828519735995</v>
       </c>
       <c r="D5">
-        <v>0.09544857498369073</v>
+        <v>0.8873739543468248</v>
       </c>
       <c r="E5">
-        <v>0.3089475278808535</v>
+        <v>0.9420052836087623</v>
       </c>
       <c r="F5">
-        <v>0.2273517340160526</v>
+        <v>0.9517525198146293</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2251408850412157</v>
+        <v>-0.02357502177020739</v>
       </c>
       <c r="C6">
-        <v>0.2596564006926809</v>
+        <v>0.6102703326053934</v>
       </c>
       <c r="D6">
-        <v>0.09977641923863516</v>
+        <v>0.7645395854549295</v>
       </c>
       <c r="E6">
-        <v>0.3158740559758512</v>
+        <v>0.8743795431361198</v>
       </c>
       <c r="F6">
-        <v>0.2335427658231482</v>
+        <v>0.8837201036899427</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1781092598615317</v>
+        <v>0.01163558867306234</v>
       </c>
       <c r="C7">
-        <v>0.1781092598615317</v>
+        <v>0.5783626329962743</v>
       </c>
       <c r="D7">
-        <v>0.05114199694748629</v>
+        <v>0.6903657101012227</v>
       </c>
       <c r="E7">
-        <v>0.2261459638098507</v>
+        <v>0.8308824887438793</v>
       </c>
       <c r="F7">
-        <v>0.147805529536099</v>
+        <v>0.8432949623807621</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2144878488911046</v>
+        <v>0.009654851496814876</v>
       </c>
       <c r="C8">
-        <v>0.2313407205340803</v>
+        <v>0.5447572585674562</v>
       </c>
       <c r="D8">
-        <v>0.09456382460910477</v>
+        <v>0.6494921422519612</v>
       </c>
       <c r="E8">
-        <v>0.3075123161909207</v>
+        <v>0.8059107532797668</v>
       </c>
       <c r="F8">
-        <v>0.235575374136654</v>
+        <v>0.8183475071966614</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.249316951555495</v>
+        <v>-0.04525758420911288</v>
       </c>
       <c r="C9">
-        <v>0.2697110612940698</v>
+        <v>0.5348296361048615</v>
       </c>
       <c r="D9">
-        <v>0.08937093368650917</v>
+        <v>0.5246369517211453</v>
       </c>
       <c r="E9">
-        <v>0.2989497176558445</v>
+        <v>0.7243182668697133</v>
       </c>
       <c r="F9">
-        <v>0.1781777855004607</v>
+        <v>0.7466109761084062</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2987280035122604</v>
+        <v>-0.120014643191906</v>
       </c>
       <c r="C10">
-        <v>0.2987280035122604</v>
+        <v>0.3396452386262637</v>
       </c>
       <c r="D10">
-        <v>0.1585806734357395</v>
+        <v>0.2564608965434484</v>
       </c>
       <c r="E10">
-        <v>0.3982218896993729</v>
+        <v>0.5064196841982432</v>
       </c>
       <c r="F10">
-        <v>0.2844280147574629</v>
+        <v>0.5186064467643261</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07168159692063568</v>
+        <v>-0.248566666372188</v>
       </c>
       <c r="C11">
-        <v>0.1326419446783583</v>
+        <v>0.301374533835348</v>
       </c>
       <c r="D11">
-        <v>0.02840911087054501</v>
+        <v>0.1561541005302556</v>
       </c>
       <c r="E11">
-        <v>0.1685500248310424</v>
+        <v>0.3951633846021865</v>
       </c>
       <c r="F11">
-        <v>0.1705537288270639</v>
+        <v>0.3434543508584382</v>
       </c>
       <c r="G11">
         <v>5</v>
